--- a/ML-results.xlsx
+++ b/ML-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil\Desktop\MY_PROJECTS\JEDHA\Projet8_Demoday\Project_Wine_Quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74B11A57-8FC2-4BFE-8279-CF7F43BEF72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E284E8-7B40-420D-B420-79DE63912F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{64555258-5F34-42D5-AD24-C287D4B3F239}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64555258-5F34-42D5-AD24-C287D4B3F239}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>data-test-v2-rw</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>test size=0,2</t>
   </si>
@@ -55,6 +52,54 @@
   </si>
   <si>
     <t>XGBClassifier</t>
+  </si>
+  <si>
+    <t>F1 score train</t>
+  </si>
+  <si>
+    <t>F1 score test</t>
+  </si>
+  <si>
+    <t>balance accuracy</t>
+  </si>
+  <si>
+    <t>data-test-v2-rw-grid-regression</t>
+  </si>
+  <si>
+    <t>RandomFRegressor</t>
+  </si>
+  <si>
+    <t>KNNREG</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>XGBRegressor</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>accuracy train</t>
+  </si>
+  <si>
+    <t>accuracy test</t>
+  </si>
+  <si>
+    <t>data-test-v2-rw-grid-class-bin</t>
+  </si>
+  <si>
+    <t>data-test-v2-rw-gridsearch</t>
+  </si>
+  <si>
+    <t>data-test-v2-ww-gridsearch</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>erreur de calcules</t>
   </si>
 </sst>
 </file>
@@ -70,12 +115,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,8 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,85 +459,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2730B4B4-0E2D-4A99-B0EA-CC551FE21281}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="33.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
       </c>
       <c r="B3">
         <v>0.6</v>
       </c>
       <c r="C3">
+        <v>0.44</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.03</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="F3">
+      <c r="I3">
+        <v>0.35</v>
+      </c>
+      <c r="J3">
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.61899999999999999</v>
       </c>
       <c r="C4">
+        <v>0.42</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.72799999999999998</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.33</v>
+      </c>
+      <c r="F4">
         <v>0.67800000000000005</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H4" s="2">
         <v>0.65</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="J4">
         <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D5" s="1"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.56310000000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.5736</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="F7">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.60624999999999996</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.67</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.22</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I15">
+        <v>0.3785</v>
+      </c>
+      <c r="J15">
+        <v>0.67530000000000001</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.498</v>
+      </c>
+      <c r="G16">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="H16">
+        <v>0.4</v>
+      </c>
+      <c r="I16">
+        <v>0.44579999999999997</v>
+      </c>
+      <c r="J16">
+        <v>0.4</v>
+      </c>
+      <c r="K16">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="C20">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="K20" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="C21">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.18440000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="F24">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.80110000000000003</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
+        <v>0.82989999999999997</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>0.74</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="F27">
+        <v>0.81159000000000003</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0.53</v>
+      </c>
+      <c r="C31">
+        <v>0.53</v>
+      </c>
+      <c r="D31">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="E31">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="C32">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D32">
+        <v>0.6653</v>
+      </c>
+      <c r="E32">
+        <v>0.37269999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="G32">
+        <v>0.39250000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>0.47</v>
+      </c>
+      <c r="D34">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>0.49</v>
+      </c>
+      <c r="D35">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="F35">
+        <v>0.64149999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>0.53</v>
+      </c>
+      <c r="D37">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>0.49</v>
+      </c>
+      <c r="D38">
+        <v>0.6653</v>
+      </c>
+      <c r="F38">
+        <v>0.64900000000000002</v>
       </c>
     </row>
   </sheetData>
